--- a/RMIS/測試資料/測試上傳_綠地.xlsx
+++ b/RMIS/測試資料/測試上傳_綠地.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KingSu\Documents\RMIS\RMIS\測試資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89BC0E72-54C4-4AE3-8B19-19694CCA2E97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31DE9616-8F9A-4C80-95D9-0F16DC262408}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15735" yWindow="1665" windowWidth="13995" windowHeight="13425" xr2:uid="{99828AEE-F931-44E8-8951-218FE93A33DE}"/>
+    <workbookView xWindow="5745" yWindow="3225" windowWidth="16560" windowHeight="13395" xr2:uid="{99828AEE-F931-44E8-8951-218FE93A33DE}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -72,77 +72,7 @@
     <t>忠誠街</t>
   </si>
   <si>
-    <t>{_x000D_
-    "OBJECTID": 5462,_x000D_
-    "全市編號": "Park_0112",_x000D_
-    "行政區編號": "PT335_0008",_x000D_
-    "公園名稱": "大溪第八公墓公園",_x000D_
-    "行政區": "大溪",_x000D_
-    "里": "仁文里",_x000D_
-    "開闢年度": 0,_x000D_
-    "大小分類": "大型公園",_x000D_
-    "公園分類": "一般公園",_x000D_
-    "維管單位": "大溪區公所",_x000D_
-    "座落位置": "介壽路與公園路交接口",_x000D_
-    "備註": " ",_x000D_
-    "分區類別": "都市計畫區",_x000D_
-    "Shape.STArea()": 0.729604465,_x000D_
-    "Shape.STLength()": 21.576925158622128,_x000D_
-    "UNIT": "HC",_x000D_
-    "鄉鎮市區": "02大溪區",_x000D_
-    "段號": 568,_x000D_
-    "段名": "仁文段",_x000D_
-    "段小段": "0568仁文段",_x000D_
-    "地號": 711,_x000D_
-    "子地號": 0,_x000D_
-    "Fid_key": "t056807110000",_x000D_
-    "都市計畫": "變更大溪鎮(埔頂地區)細部計畫(第一次通盤檢討)案",_x000D_
-    "都計用地": "第一種住宅區",_x000D_
-    "使用分區": NaN,_x000D_
-    "使用地": NaN,_x000D_
-    "公私別": "私",_x000D_
-    "取得方式": " ",_x000D_
-    "取得單位": " ",_x000D_
-    "地籍面積": 0.72947299_x000D_
-}</t>
-  </si>
-  <si>
     <t>大忠街</t>
-  </si>
-  <si>
-    <t>{_x000D_
-    "OBJECTID": 5485,_x000D_
-    "全市編號": "Park_0116",_x000D_
-    "行政區編號": "PT335_0012",_x000D_
-    "公園名稱": "埔頂公園(2)",_x000D_
-    "行政區": "大溪",_x000D_
-    "里": "仁善里",_x000D_
-    "開闢年度": 0,_x000D_
-    "大小分類": "大型公園",_x000D_
-    "公園分類": "一般公園",_x000D_
-    "維管單位": "大溪區公所",_x000D_
-    "座落位置": "公園路、仁善街",_x000D_
-    "備註": " ",_x000D_
-    "分區類別": "都市計畫區",_x000D_
-    "Shape.STArea()": 224.9858,_x000D_
-    "Shape.STLength()": 59.99810663679313,_x000D_
-    "UNIT": "HC",_x000D_
-    "鄉鎮市區": "02大溪區",_x000D_
-    "段號": 498,_x000D_
-    "段名": "仁善段",_x000D_
-    "段小段": "0498仁善段",_x000D_
-    "地號": 630,_x000D_
-    "子地號": 0,_x000D_
-    "Fid_key": "t049806300000",_x000D_
-    "都市計畫": "「擬定大溪（埔頂地區）主要計畫」案",_x000D_
-    "都計用地": "公園用地",_x000D_
-    "使用分區": NaN,_x000D_
-    "使用地": NaN,_x000D_
-    "公私別": "公",_x000D_
-    "取得方式": "徵收",_x000D_
-    "取得單位": " ",_x000D_
-    "地籍面積": 224.98599243_x000D_
-}</t>
   </si>
   <si>
     <t>road_city</t>
@@ -150,6 +80,14 @@
   </si>
   <si>
     <t>road_dist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{ "OBJECTID": 5462, "全市編號": "Park_0112", "行政區編號": "PT335_0008", "公園名稱": "大溪第八公墓公園", "行政區": "大溪", "里": "仁文里", "開闢年度": 0, "大小分類": "大型公園", "公園分類": "一般公園", "維管單位": "大溪區公所", "座落位置": "介壽路與公園路交接口", "備註": " ", "分區類別": "都市計畫區", "Shape.STArea()": 0.729604465, "Shape.STLength()": 21.576925158622128, "UNIT": "HC", "鄉鎮市區": "02大溪區", "段號": 568, "段名": "仁文段", "段小段": "0568仁文段", "地號": 711, "子地號": 0, "Fid_key": "t056807110000", "都市計畫": "變更大溪鎮(埔頂地區)細部計畫(第一次通盤檢討)案", "都計用地": "第一種住宅區", "使用分區": null, "使用地": null, "公私別": "私", "取得方式": " ", "取得單位": " ", "地籍面積": 0.72947299 }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{ "OBJECTID": 5485, "全市編號": "Park_0116", "行政區編號": "PT335_0012", "公園名稱": "埔頂公園(2)", "行政區": "大溪", "里": "仁善里", "開闢年度": 0, "大小分類": "大型公園", "公園分類": "一般公園", "維管單位": "大溪區公所", "座落位置": "公園路、仁善街", "備註": " ", "分區類別": "都市計畫區", "Shape.STArea()": 224.9858, "Shape.STLength()": 59.99810663679313, "UNIT": "HC", "鄉鎮市區": "02大溪區", "段號": 498, "段名": "仁善段", "段小段": "0498仁善段", "地號": 630, "子地號": 0, "Fid_key": "t049806300000", "都市計畫": "「擬定大溪（埔頂地區）主要計畫」案", "都計用地": "公園用地", "使用分區": null, "使用地": null, "公私別": "公", "取得方式": "徵收", "取得單位": " ", "地籍面積": 224.98599243 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -519,11 +457,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A0745AA-8D90-4F90-8E26-C34F79311A5B}">
   <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="11" max="11" width="36.5" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -536,10 +477,10 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
@@ -592,7 +533,7 @@
         <v>0</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -772,7 +713,7 @@
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G8">
         <v>149071</v>
@@ -787,7 +728,7 @@
         <v>0</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -807,7 +748,7 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G9">
         <v>149072</v>
@@ -839,7 +780,7 @@
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G10">
         <v>149073</v>
@@ -871,7 +812,7 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G11">
         <v>149074</v>
@@ -903,7 +844,7 @@
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G12">
         <v>149075</v>
@@ -935,7 +876,7 @@
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G13">
         <v>149076</v>
@@ -967,7 +908,7 @@
         <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G14">
         <v>149077</v>
@@ -999,7 +940,7 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G15">
         <v>149078</v>
@@ -1031,7 +972,7 @@
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G16">
         <v>149079</v>
@@ -1063,7 +1004,7 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G17">
         <v>149080</v>
@@ -1095,7 +1036,7 @@
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G18">
         <v>149081</v>
@@ -1127,7 +1068,7 @@
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G19">
         <v>149082</v>
@@ -1159,7 +1100,7 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G20">
         <v>149083</v>
@@ -1191,7 +1132,7 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G21">
         <v>149084</v>
@@ -1223,7 +1164,7 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G22">
         <v>149085</v>
@@ -1255,7 +1196,7 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G23">
         <v>149086</v>
@@ -1287,7 +1228,7 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G24">
         <v>149087</v>
@@ -1319,7 +1260,7 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G25">
         <v>149088</v>
@@ -1351,7 +1292,7 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G26">
         <v>149089</v>
@@ -1383,7 +1324,7 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G27">
         <v>149090</v>
@@ -1415,7 +1356,7 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G28">
         <v>149091</v>
@@ -1447,7 +1388,7 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G29">
         <v>149092</v>
@@ -1479,7 +1420,7 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G30">
         <v>149093</v>
@@ -1511,7 +1452,7 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G31">
         <v>149094</v>
@@ -1543,7 +1484,7 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G32">
         <v>149095</v>
@@ -1575,7 +1516,7 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G33">
         <v>149096</v>
@@ -1607,7 +1548,7 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G34">
         <v>149097</v>
